--- a/Code/Results/Cases/Case_3_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46008839311064</v>
+        <v>15.88593828126073</v>
       </c>
       <c r="C2">
-        <v>8.39453788414448</v>
+        <v>8.035776482791084</v>
       </c>
       <c r="D2">
-        <v>3.577678731000917</v>
+        <v>6.293144590183444</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.91000446035605</v>
+        <v>48.89073580786976</v>
       </c>
       <c r="G2">
-        <v>2.138486989138315</v>
+        <v>3.745829902863885</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.723119015753517</v>
+        <v>10.99696671043911</v>
       </c>
       <c r="K2">
-        <v>13.45481764444048</v>
+        <v>15.4467833546311</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.44285401603437</v>
+        <v>18.66463188785841</v>
       </c>
       <c r="N2">
-        <v>17.00603167038555</v>
+        <v>24.28350211668339</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.58372696671194</v>
+        <v>15.71933865745114</v>
       </c>
       <c r="C3">
-        <v>7.871294076614296</v>
+        <v>7.927829887839084</v>
       </c>
       <c r="D3">
-        <v>3.427754544737612</v>
+        <v>6.295158073387191</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.96030771853847</v>
+        <v>48.79307069661363</v>
       </c>
       <c r="G3">
-        <v>2.14717602081944</v>
+        <v>3.748934666899126</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.67489777834451</v>
+        <v>11.01271590913506</v>
       </c>
       <c r="K3">
-        <v>12.76854534741764</v>
+        <v>15.3460253989244</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.95202158844649</v>
+        <v>18.63336699307951</v>
       </c>
       <c r="N3">
-        <v>17.10424058546221</v>
+        <v>24.31690165193041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.02994971226462</v>
+        <v>15.62067092474922</v>
       </c>
       <c r="C4">
-        <v>7.538816805740445</v>
+        <v>7.863331400068546</v>
       </c>
       <c r="D4">
-        <v>3.334344577007383</v>
+        <v>6.297646318034918</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.39368862506608</v>
+        <v>48.74233128416975</v>
       </c>
       <c r="G4">
-        <v>2.152650726059255</v>
+        <v>3.75094062349457</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.648558740789036</v>
+        <v>11.02383350078165</v>
       </c>
       <c r="K4">
-        <v>12.33843889071811</v>
+        <v>15.28784635449371</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.65083018893329</v>
+        <v>18.61810819744755</v>
       </c>
       <c r="N4">
-        <v>17.16966846933735</v>
+        <v>24.33925566133304</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.80055796685714</v>
+        <v>15.58141980892591</v>
       </c>
       <c r="C5">
-        <v>7.400600149958986</v>
+        <v>7.837529261407999</v>
       </c>
       <c r="D5">
-        <v>3.295998443379906</v>
+        <v>6.298975896282048</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.16703199980824</v>
+        <v>48.72398406216259</v>
       </c>
       <c r="G5">
-        <v>2.154918406723254</v>
+        <v>3.751783206082527</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.638629192653038</v>
+        <v>11.02872805318886</v>
       </c>
       <c r="K5">
-        <v>12.1611787888583</v>
+        <v>15.2650861293808</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.52829336109042</v>
+        <v>18.61288486248203</v>
       </c>
       <c r="N5">
-        <v>17.19757822623581</v>
+        <v>24.34882933832147</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.76225032246089</v>
+        <v>15.57496125952334</v>
       </c>
       <c r="C6">
-        <v>7.37748768578461</v>
+        <v>7.833274880783852</v>
       </c>
       <c r="D6">
-        <v>3.28961603790058</v>
+        <v>6.299215753525357</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.12965505530775</v>
+        <v>48.72107844738241</v>
       </c>
       <c r="G6">
-        <v>2.155297214183707</v>
+        <v>3.751924637227957</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.637028410136415</v>
+        <v>11.02956277810043</v>
       </c>
       <c r="K6">
-        <v>12.13163165435389</v>
+        <v>15.26136466625799</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.50796319139004</v>
+        <v>18.61207772836112</v>
       </c>
       <c r="N6">
-        <v>17.20228679889423</v>
+        <v>24.3504470760597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.02687079670754</v>
+        <v>15.62013763829533</v>
       </c>
       <c r="C7">
-        <v>7.536963681033184</v>
+        <v>7.862981430095066</v>
       </c>
       <c r="D7">
-        <v>3.333828479758473</v>
+        <v>6.297662970397466</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.39061453803668</v>
+        <v>48.74207440446903</v>
       </c>
       <c r="G7">
-        <v>2.152681158191093</v>
+        <v>3.750951884953973</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.648421597009264</v>
+        <v>11.02389803638771</v>
       </c>
       <c r="K7">
-        <v>12.33605604538831</v>
+        <v>15.28753553620107</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.64917658374375</v>
+        <v>18.61803372067688</v>
       </c>
       <c r="N7">
-        <v>17.17003987236014</v>
+        <v>24.3393828957975</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.16129168929734</v>
+        <v>15.82777007999167</v>
       </c>
       <c r="C8">
-        <v>8.216492219632041</v>
+        <v>7.998207293633159</v>
       </c>
       <c r="D8">
-        <v>3.526300074530776</v>
+        <v>6.293579501650671</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.57918184652925</v>
+        <v>48.85515181435447</v>
       </c>
       <c r="G8">
-        <v>2.141454981622517</v>
+        <v>3.746879803265869</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.705802960428849</v>
+        <v>11.00209664182807</v>
       </c>
       <c r="K8">
-        <v>13.22011555107353</v>
+        <v>15.41129000680727</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.27366561164244</v>
+        <v>18.65303736324501</v>
       </c>
       <c r="N8">
-        <v>17.03880360999886</v>
+        <v>24.29463496513944</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.25431068904019</v>
+        <v>16.26162181127317</v>
       </c>
       <c r="C9">
-        <v>9.528134915703001</v>
+        <v>8.275997030532865</v>
       </c>
       <c r="D9">
-        <v>3.890720128425041</v>
+        <v>6.295466352744531</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.03701912782569</v>
+        <v>49.14962991454534</v>
       </c>
       <c r="G9">
-        <v>2.120470614464152</v>
+        <v>3.73968083505161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.845082364819084</v>
+        <v>10.97082683512008</v>
       </c>
       <c r="K9">
-        <v>14.87739285253458</v>
+        <v>15.68222033666285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.49379385014806</v>
+        <v>18.75269430364468</v>
       </c>
       <c r="N9">
-        <v>16.82421373385335</v>
+        <v>24.22154080287013</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.73260336872706</v>
+        <v>16.59375540296792</v>
       </c>
       <c r="C10">
-        <v>10.46263857536231</v>
+        <v>8.485705801809679</v>
       </c>
       <c r="D10">
-        <v>4.148038813627157</v>
+        <v>6.302824902069147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.91631267848136</v>
+        <v>49.40956775298345</v>
       </c>
       <c r="G10">
-        <v>2.105563621185236</v>
+        <v>3.734865464601659</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.964870704206105</v>
+        <v>10.95484863694207</v>
       </c>
       <c r="K10">
-        <v>16.16583727843612</v>
+        <v>15.89704989844945</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.38098588919198</v>
+        <v>18.84446250565125</v>
       </c>
       <c r="N10">
-        <v>16.6958428347896</v>
+        <v>24.17678070723196</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.44859650354595</v>
+        <v>16.74712541537264</v>
       </c>
       <c r="C11">
-        <v>10.87088692834602</v>
+        <v>8.58188566306633</v>
       </c>
       <c r="D11">
-        <v>4.262458518745396</v>
+        <v>6.307453892168306</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.78685981046841</v>
+        <v>49.53708441001289</v>
       </c>
       <c r="G11">
-        <v>2.098863751383912</v>
+        <v>3.732776478405726</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.023417677808476</v>
+        <v>10.94909716926559</v>
       </c>
       <c r="K11">
-        <v>16.79064732760968</v>
+        <v>15.99787441061739</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.78165320198801</v>
+        <v>18.89014602547696</v>
       </c>
       <c r="N11">
-        <v>16.64462153182351</v>
+        <v>24.15836159216114</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.71551257502239</v>
+        <v>16.80547722270944</v>
       </c>
       <c r="C12">
-        <v>11.02314515624617</v>
+        <v>8.61838255868115</v>
       </c>
       <c r="D12">
-        <v>4.305384735280479</v>
+        <v>6.309389518068559</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.11877340092745</v>
+        <v>49.5866845240031</v>
       </c>
       <c r="G12">
-        <v>2.09633570421737</v>
+        <v>3.731999943881974</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.046193801227267</v>
+        <v>10.94713717162465</v>
       </c>
       <c r="K12">
-        <v>17.02342216133538</v>
+        <v>16.03647000811814</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.93290764679737</v>
+        <v>18.90800236219841</v>
       </c>
       <c r="N12">
-        <v>16.62633512141488</v>
+        <v>24.15166624049944</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.65821281417286</v>
+        <v>16.79289879298771</v>
       </c>
       <c r="C13">
-        <v>10.99045602232973</v>
+        <v>8.610519512094113</v>
       </c>
       <c r="D13">
-        <v>4.296157985454864</v>
+        <v>6.308964545775497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.04718898832031</v>
+        <v>49.57594423361449</v>
       </c>
       <c r="G13">
-        <v>2.096879807227124</v>
+        <v>3.732166540065267</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.041261238838251</v>
+        <v>10.94754960205158</v>
       </c>
       <c r="K13">
-        <v>16.97345796655727</v>
+        <v>16.02813975750887</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.90035371496114</v>
+        <v>18.90413206398067</v>
       </c>
       <c r="N13">
-        <v>16.63022271997073</v>
+        <v>24.15309576655874</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.47063958420639</v>
+        <v>16.75192087296036</v>
       </c>
       <c r="C14">
-        <v>10.88345958915484</v>
+        <v>8.58488697637776</v>
       </c>
       <c r="D14">
-        <v>4.265998250866867</v>
+        <v>6.307609484541815</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.81412114236488</v>
+        <v>49.54113886489442</v>
       </c>
       <c r="G14">
-        <v>2.098655602274477</v>
+        <v>3.732712301933506</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.025279208864049</v>
+        <v>10.94893155216091</v>
       </c>
       <c r="K14">
-        <v>16.8098737736774</v>
+        <v>16.0010415392272</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.79410660616619</v>
+        <v>18.89160396998414</v>
       </c>
       <c r="N14">
-        <v>16.6430943726001</v>
+        <v>24.15780515721607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.35520045557096</v>
+        <v>16.72685478415222</v>
       </c>
       <c r="C15">
-        <v>10.81761969522921</v>
+        <v>8.569195082199602</v>
       </c>
       <c r="D15">
-        <v>4.247471611890815</v>
+        <v>6.30680321842312</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.67165506260493</v>
+        <v>49.51998983174548</v>
       </c>
       <c r="G15">
-        <v>2.099744422866339</v>
+        <v>3.7330484851946</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.015569330393657</v>
+        <v>10.94980641448746</v>
       </c>
       <c r="K15">
-        <v>16.70917935398096</v>
+        <v>15.98449631500472</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.72896496776555</v>
+        <v>18.88400239851893</v>
       </c>
       <c r="N15">
-        <v>16.65112565570904</v>
+        <v>24.16072621009837</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.68521488711083</v>
+        <v>16.58377358232999</v>
       </c>
       <c r="C16">
-        <v>10.43562657376794</v>
+        <v>8.479432799656893</v>
       </c>
       <c r="D16">
-        <v>4.140506061831088</v>
+        <v>6.302548044707172</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.85973487594875</v>
+        <v>49.40141904512085</v>
       </c>
       <c r="G16">
-        <v>2.10600289031221</v>
+        <v>3.735004021054275</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.961128003575709</v>
+        <v>10.95525502078019</v>
       </c>
       <c r="K16">
-        <v>16.12446162795996</v>
+        <v>15.89052057252655</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.35473778645149</v>
+        <v>18.84155544234799</v>
       </c>
       <c r="N16">
-        <v>16.69934113842721</v>
+        <v>24.17802354794222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.29072023383819</v>
+        <v>16.49654356230753</v>
       </c>
       <c r="C17">
-        <v>10.1970268081924</v>
+        <v>8.424540497170385</v>
       </c>
       <c r="D17">
-        <v>4.074192619269103</v>
+        <v>6.300264804167398</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.3656480188253</v>
+        <v>49.33103977284912</v>
       </c>
       <c r="G17">
-        <v>2.109861297499109</v>
+        <v>3.736229628744927</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.928784050004949</v>
+        <v>10.958986001606</v>
       </c>
       <c r="K17">
-        <v>15.75879809663909</v>
+        <v>15.83364183088077</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.12437069814836</v>
+        <v>18.81651779875572</v>
       </c>
       <c r="N17">
-        <v>16.73081046546232</v>
+        <v>24.18913259079474</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.0745534858262</v>
+        <v>16.44658907734328</v>
       </c>
       <c r="C18">
-        <v>10.05819749212725</v>
+        <v>8.393043696824524</v>
       </c>
       <c r="D18">
-        <v>4.035803735930731</v>
+        <v>6.299072271966903</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.08293252781214</v>
+        <v>49.29143333026904</v>
       </c>
       <c r="G18">
-        <v>2.112088386692231</v>
+        <v>3.736944129203631</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.910560866079917</v>
+        <v>10.96127477388246</v>
       </c>
       <c r="K18">
-        <v>15.54588037181943</v>
+        <v>15.80122007355564</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.99159621889891</v>
+        <v>18.8024880457284</v>
       </c>
       <c r="N18">
-        <v>16.74958098430299</v>
+        <v>24.195705039064</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.00105306454883</v>
+        <v>16.42971442352396</v>
       </c>
       <c r="C19">
-        <v>10.0109161499509</v>
+        <v>8.382393573368278</v>
       </c>
       <c r="D19">
-        <v>4.022764279609578</v>
+        <v>6.298689281307493</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.98746287125213</v>
+        <v>49.27817395364877</v>
       </c>
       <c r="G19">
-        <v>2.112843863215472</v>
+        <v>3.737187691846358</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.9044554488127</v>
+        <v>10.96207424604163</v>
       </c>
       <c r="K19">
-        <v>15.47512950020723</v>
+        <v>15.79029391109555</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.94659599789818</v>
+        <v>18.79780184270582</v>
       </c>
       <c r="N19">
-        <v>16.75604922373802</v>
+        <v>24.19796174936142</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.33058045033249</v>
+        <v>16.50580718563777</v>
       </c>
       <c r="C20">
-        <v>10.22259042924875</v>
+        <v>8.430376300462617</v>
       </c>
       <c r="D20">
-        <v>4.081277564211921</v>
+        <v>6.300495375048139</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.41809232804039</v>
+        <v>49.33844147010628</v>
       </c>
       <c r="G20">
-        <v>2.109449770924698</v>
+        <v>3.736098171555065</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.932187611497407</v>
+        <v>10.95857405327209</v>
       </c>
       <c r="K20">
-        <v>15.79799156662265</v>
+        <v>15.83966651926897</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.14892240058671</v>
+        <v>18.81914474179077</v>
       </c>
       <c r="N20">
-        <v>16.7273906005715</v>
+        <v>24.18793109134337</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.52584775264443</v>
+        <v>16.76395007725973</v>
       </c>
       <c r="C21">
-        <v>10.91494969259885</v>
+        <v>8.59241410958438</v>
       </c>
       <c r="D21">
-        <v>4.274867958787908</v>
+        <v>6.308002552778909</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.88251733304534</v>
+        <v>49.55132660262442</v>
       </c>
       <c r="G21">
-        <v>2.09813378518862</v>
+        <v>3.732551605059285</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.029956891798044</v>
+        <v>10.9485197263847</v>
       </c>
       <c r="K21">
-        <v>16.85802519684166</v>
+        <v>16.00898990673926</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.82532697820687</v>
+        <v>18.89526873603093</v>
       </c>
       <c r="N21">
-        <v>16.63928286430848</v>
+        <v>24.15641430570588</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.29504553218796</v>
+        <v>16.93423309833355</v>
       </c>
       <c r="C22">
-        <v>11.35387602302579</v>
+        <v>8.698739736960595</v>
       </c>
       <c r="D22">
-        <v>4.399040881212354</v>
+        <v>6.313973186922057</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44.85278819312197</v>
+        <v>49.69809775016184</v>
       </c>
       <c r="G22">
-        <v>2.09078943728662</v>
+        <v>3.730318309479981</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.097396932042267</v>
+        <v>10.94321894746354</v>
       </c>
       <c r="K22">
-        <v>17.5285797832807</v>
+        <v>16.12206030098387</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.26465353310881</v>
+        <v>18.94826186346203</v>
       </c>
       <c r="N22">
-        <v>16.5882120673647</v>
+        <v>24.13744591062249</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.88670819517987</v>
+        <v>16.84322382087973</v>
       </c>
       <c r="C23">
-        <v>11.12082249345323</v>
+        <v>8.641964864430165</v>
       </c>
       <c r="D23">
-        <v>4.332988392212298</v>
+        <v>6.310689716821102</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.33371710780688</v>
+        <v>49.61907158804766</v>
       </c>
       <c r="G23">
-        <v>2.094705510604954</v>
+        <v>3.731502548795066</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.061070824498176</v>
+        <v>10.94593191679182</v>
       </c>
       <c r="K23">
-        <v>17.17268115779961</v>
+        <v>16.06150223938993</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.03043781803438</v>
+        <v>18.91968506476254</v>
       </c>
       <c r="N23">
-        <v>16.61484540106927</v>
+        <v>24.14742050722314</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.31256557840541</v>
+        <v>16.50161848934037</v>
       </c>
       <c r="C24">
-        <v>10.21103827807059</v>
+        <v>8.427737739375926</v>
       </c>
       <c r="D24">
-        <v>4.078075282335138</v>
+        <v>6.300390759648167</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.39437807689129</v>
+        <v>49.33509249627326</v>
       </c>
       <c r="G24">
-        <v>2.109635794358924</v>
+        <v>3.736157572561923</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.930647704999895</v>
+        <v>10.95875984724096</v>
       </c>
       <c r="K24">
-        <v>15.78028059616345</v>
+        <v>15.83694188761484</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.13782361023313</v>
+        <v>18.8179559640924</v>
       </c>
       <c r="N24">
-        <v>16.72893461428117</v>
+        <v>24.18847371075571</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.70297854843558</v>
+        <v>16.14169025981191</v>
       </c>
       <c r="C25">
-        <v>9.168514596607078</v>
+        <v>8.199710456815344</v>
       </c>
       <c r="D25">
-        <v>3.793813062580841</v>
+        <v>6.293902260774038</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.35898058393795</v>
+        <v>49.06224952657075</v>
       </c>
       <c r="G25">
-        <v>2.126048705435053</v>
+        <v>3.741544749344564</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.804422140882012</v>
+        <v>10.97805714725441</v>
       </c>
       <c r="K25">
-        <v>14.43806221251165</v>
+        <v>15.60604625192526</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.16494694196686</v>
+        <v>18.72244784055253</v>
       </c>
       <c r="N25">
-        <v>16.87737656777535</v>
+        <v>24.23974490200825</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.88593828126073</v>
+        <v>15.46008839311065</v>
       </c>
       <c r="C2">
-        <v>8.035776482791084</v>
+        <v>8.394537884144437</v>
       </c>
       <c r="D2">
-        <v>6.293144590183444</v>
+        <v>3.577678731000873</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>48.89073580786976</v>
+        <v>38.91000446035602</v>
       </c>
       <c r="G2">
-        <v>3.745829902863885</v>
+        <v>2.138486989138448</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.99696671043911</v>
+        <v>6.723119015753462</v>
       </c>
       <c r="K2">
-        <v>15.4467833546311</v>
+        <v>13.45481764444048</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.66463188785841</v>
+        <v>13.44285401603435</v>
       </c>
       <c r="N2">
-        <v>24.28350211668339</v>
+        <v>17.00603167038554</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.71933865745114</v>
+        <v>14.58372696671187</v>
       </c>
       <c r="C3">
-        <v>7.927829887839084</v>
+        <v>7.871294076614332</v>
       </c>
       <c r="D3">
-        <v>6.295158073387191</v>
+        <v>3.427754544737708</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>48.79307069661363</v>
+        <v>37.9603077185383</v>
       </c>
       <c r="G3">
-        <v>3.748934666899126</v>
+        <v>2.147176020819438</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.01271590913506</v>
+        <v>6.674897778344525</v>
       </c>
       <c r="K3">
-        <v>15.3460253989244</v>
+        <v>12.76854534741761</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.63336699307951</v>
+        <v>12.95202158844645</v>
       </c>
       <c r="N3">
-        <v>24.31690165193041</v>
+        <v>17.10424058546209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.62067092474922</v>
+        <v>14.0299497122646</v>
       </c>
       <c r="C4">
-        <v>7.863331400068546</v>
+        <v>7.53881680574045</v>
       </c>
       <c r="D4">
-        <v>6.297646318034918</v>
+        <v>3.334344577007314</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>48.74233128416975</v>
+        <v>37.3936886250659</v>
       </c>
       <c r="G4">
-        <v>3.75094062349457</v>
+        <v>2.152650726059118</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.02383350078165</v>
+        <v>6.648558740788977</v>
       </c>
       <c r="K4">
-        <v>15.28784635449371</v>
+        <v>12.33843889071813</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.61810819744755</v>
+        <v>12.65083018893325</v>
       </c>
       <c r="N4">
-        <v>24.33925566133304</v>
+        <v>17.16966846933728</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58141980892591</v>
+        <v>13.80055796685718</v>
       </c>
       <c r="C5">
-        <v>7.837529261407999</v>
+        <v>7.400600149958966</v>
       </c>
       <c r="D5">
-        <v>6.298975896282048</v>
+        <v>3.295998443379969</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>48.72398406216259</v>
+        <v>37.16703199980838</v>
       </c>
       <c r="G5">
-        <v>3.751783206082527</v>
+        <v>2.154918406723256</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.02872805318886</v>
+        <v>6.638629192653014</v>
       </c>
       <c r="K5">
-        <v>15.2650861293808</v>
+        <v>12.16117878885833</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.61288486248203</v>
+        <v>12.52829336109042</v>
       </c>
       <c r="N5">
-        <v>24.34882933832147</v>
+        <v>17.19757822623585</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57496125952334</v>
+        <v>13.76225032246088</v>
       </c>
       <c r="C6">
-        <v>7.833274880783852</v>
+        <v>7.377487685784622</v>
       </c>
       <c r="D6">
-        <v>6.299215753525357</v>
+        <v>3.289616037900656</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>48.72107844738241</v>
+        <v>37.12965505530762</v>
       </c>
       <c r="G6">
-        <v>3.751924637227957</v>
+        <v>2.155297214183706</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.02956277810043</v>
+        <v>6.637028410136428</v>
       </c>
       <c r="K6">
-        <v>15.26136466625799</v>
+        <v>12.13163165435385</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.61207772836112</v>
+        <v>12.50796319139003</v>
       </c>
       <c r="N6">
-        <v>24.3504470760597</v>
+        <v>17.20228679889418</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62013763829533</v>
+        <v>14.02687079670753</v>
       </c>
       <c r="C7">
-        <v>7.862981430095066</v>
+        <v>7.536963681033211</v>
       </c>
       <c r="D7">
-        <v>6.297662970397466</v>
+        <v>3.333828479758499</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>48.74207440446903</v>
+        <v>37.39061453803657</v>
       </c>
       <c r="G7">
-        <v>3.750951884953973</v>
+        <v>2.152681158191228</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.02389803638771</v>
+        <v>6.648421597009236</v>
       </c>
       <c r="K7">
-        <v>15.28753553620107</v>
+        <v>12.3360560453883</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.61803372067688</v>
+        <v>12.64917658374373</v>
       </c>
       <c r="N7">
-        <v>24.3393828957975</v>
+        <v>17.17003987236008</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.82777007999167</v>
+        <v>15.16129168929733</v>
       </c>
       <c r="C8">
-        <v>7.998207293633159</v>
+        <v>8.21649221963202</v>
       </c>
       <c r="D8">
-        <v>6.293579501650671</v>
+        <v>3.526300074530867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>48.85515181435447</v>
+        <v>38.57918184652925</v>
       </c>
       <c r="G8">
-        <v>3.746879803265869</v>
+        <v>2.14145498162305</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.00209664182807</v>
+        <v>6.705802960428884</v>
       </c>
       <c r="K8">
-        <v>15.41129000680727</v>
+        <v>13.22011555107348</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.65303736324501</v>
+        <v>13.27366561164244</v>
       </c>
       <c r="N8">
-        <v>24.29463496513944</v>
+        <v>17.03880360999886</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26162181127317</v>
+        <v>17.25431068904016</v>
       </c>
       <c r="C9">
-        <v>8.275997030532865</v>
+        <v>9.528134915703051</v>
       </c>
       <c r="D9">
-        <v>6.295466352744531</v>
+        <v>3.890720128424948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.14962991454534</v>
+        <v>41.0370191278257</v>
       </c>
       <c r="G9">
-        <v>3.73968083505161</v>
+        <v>2.120470614464285</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.97082683512008</v>
+        <v>6.845082364819078</v>
       </c>
       <c r="K9">
-        <v>15.68222033666285</v>
+        <v>14.87739285253458</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.75269430364468</v>
+        <v>14.49379385014804</v>
       </c>
       <c r="N9">
-        <v>24.22154080287013</v>
+        <v>16.82421373385344</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.59375540296792</v>
+        <v>18.73260336872698</v>
       </c>
       <c r="C10">
-        <v>8.485705801809679</v>
+        <v>10.46263857536226</v>
       </c>
       <c r="D10">
-        <v>6.302824902069147</v>
+        <v>4.148038813627149</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.40956775298345</v>
+        <v>42.91631267848148</v>
       </c>
       <c r="G10">
-        <v>3.734865464601659</v>
+        <v>2.105563621185371</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.95484863694207</v>
+        <v>6.964870704206105</v>
       </c>
       <c r="K10">
-        <v>15.89704989844945</v>
+        <v>16.16583727843606</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.84446250565125</v>
+        <v>15.38098588919201</v>
       </c>
       <c r="N10">
-        <v>24.17678070723196</v>
+        <v>16.69584283478972</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.74712541537264</v>
+        <v>19.4485965035459</v>
       </c>
       <c r="C11">
-        <v>8.58188566306633</v>
+        <v>10.87088692834609</v>
       </c>
       <c r="D11">
-        <v>6.307453892168306</v>
+        <v>4.26245851874531</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.53708441001289</v>
+        <v>43.78685981046855</v>
       </c>
       <c r="G11">
-        <v>3.732776478405726</v>
+        <v>2.098863751384041</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.94909716926559</v>
+        <v>7.023417677808425</v>
       </c>
       <c r="K11">
-        <v>15.99787441061739</v>
+        <v>16.79064732760963</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.89014602547696</v>
+        <v>15.78165320198802</v>
       </c>
       <c r="N11">
-        <v>24.15836159216114</v>
+        <v>16.64462153182355</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.80547722270944</v>
+        <v>19.71551257502243</v>
       </c>
       <c r="C12">
-        <v>8.61838255868115</v>
+        <v>11.02314515624617</v>
       </c>
       <c r="D12">
-        <v>6.309389518068559</v>
+        <v>4.305384735280522</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.5866845240031</v>
+        <v>44.11877340092755</v>
       </c>
       <c r="G12">
-        <v>3.731999943881974</v>
+        <v>2.096335704217368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.94713717162465</v>
+        <v>7.046193801227226</v>
       </c>
       <c r="K12">
-        <v>16.03647000811814</v>
+        <v>17.02342216133542</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.90800236219841</v>
+        <v>15.9329076467974</v>
       </c>
       <c r="N12">
-        <v>24.15166624049944</v>
+        <v>16.62633512141489</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.79289879298771</v>
+        <v>19.65821281417289</v>
       </c>
       <c r="C13">
-        <v>8.610519512094113</v>
+        <v>10.99045602232979</v>
       </c>
       <c r="D13">
-        <v>6.308964545775497</v>
+        <v>4.296157985454801</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.57594423361449</v>
+        <v>44.04718898832022</v>
       </c>
       <c r="G13">
-        <v>3.732166540065267</v>
+        <v>2.096879807226989</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.94754960205158</v>
+        <v>7.041261238838234</v>
       </c>
       <c r="K13">
-        <v>16.02813975750887</v>
+        <v>16.97345796655731</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.90413206398067</v>
+        <v>15.90035371496111</v>
       </c>
       <c r="N13">
-        <v>24.15309576655874</v>
+        <v>16.63022271997074</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75192087296036</v>
+        <v>19.47063958420643</v>
       </c>
       <c r="C14">
-        <v>8.58488697637776</v>
+        <v>10.88345958915484</v>
       </c>
       <c r="D14">
-        <v>6.307609484541815</v>
+        <v>4.265998250866857</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.54113886489442</v>
+        <v>43.81412114236493</v>
       </c>
       <c r="G14">
-        <v>3.732712301933506</v>
+        <v>2.098655602274477</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.94893155216091</v>
+        <v>7.025279208864074</v>
       </c>
       <c r="K14">
-        <v>16.0010415392272</v>
+        <v>16.80987377367744</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.89160396998414</v>
+        <v>15.79410660616618</v>
       </c>
       <c r="N14">
-        <v>24.15780515721607</v>
+        <v>16.64309437260018</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.72685478415222</v>
+        <v>19.35520045557092</v>
       </c>
       <c r="C15">
-        <v>8.569195082199602</v>
+        <v>10.81761969522923</v>
       </c>
       <c r="D15">
-        <v>6.30680321842312</v>
+        <v>4.247471611890812</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.51998983174548</v>
+        <v>43.67165506260487</v>
       </c>
       <c r="G15">
-        <v>3.7330484851946</v>
+        <v>2.099744422866343</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.94980641448746</v>
+        <v>7.015569330393539</v>
       </c>
       <c r="K15">
-        <v>15.98449631500472</v>
+        <v>16.70917935398095</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.88400239851893</v>
+        <v>15.72896496776553</v>
       </c>
       <c r="N15">
-        <v>24.16072621009837</v>
+        <v>16.651125655709</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.58377358232999</v>
+        <v>18.68521488711079</v>
       </c>
       <c r="C16">
-        <v>8.479432799656893</v>
+        <v>10.43562657376798</v>
       </c>
       <c r="D16">
-        <v>6.302548044707172</v>
+        <v>4.140506061831127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.40141904512085</v>
+        <v>42.85973487594872</v>
       </c>
       <c r="G16">
-        <v>3.735004021054275</v>
+        <v>2.106002890312079</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.95525502078019</v>
+        <v>6.961128003575712</v>
       </c>
       <c r="K16">
-        <v>15.89052057252655</v>
+        <v>16.12446162795991</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.84155544234799</v>
+        <v>15.35473778645148</v>
       </c>
       <c r="N16">
-        <v>24.17802354794222</v>
+        <v>16.69934113842718</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49654356230753</v>
+        <v>18.29072023383819</v>
       </c>
       <c r="C17">
-        <v>8.424540497170385</v>
+        <v>10.19702680819247</v>
       </c>
       <c r="D17">
-        <v>6.300264804167398</v>
+        <v>4.07419261926914</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.33103977284912</v>
+        <v>42.3656480188254</v>
       </c>
       <c r="G17">
-        <v>3.736229628744927</v>
+        <v>2.109861297499375</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.958986001606</v>
+        <v>6.928784050004934</v>
       </c>
       <c r="K17">
-        <v>15.83364183088077</v>
+        <v>15.7587980966391</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.81651779875572</v>
+        <v>15.12437069814838</v>
       </c>
       <c r="N17">
-        <v>24.18913259079474</v>
+        <v>16.73081046546235</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44658907734328</v>
+        <v>18.07455348582623</v>
       </c>
       <c r="C18">
-        <v>8.393043696824524</v>
+        <v>10.05819749212715</v>
       </c>
       <c r="D18">
-        <v>6.299072271966903</v>
+        <v>4.035803735930693</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.29143333026904</v>
+        <v>42.08293252781223</v>
       </c>
       <c r="G18">
-        <v>3.736944129203631</v>
+        <v>2.112088386692363</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.96127477388246</v>
+        <v>6.910560866079964</v>
       </c>
       <c r="K18">
-        <v>15.80122007355564</v>
+        <v>15.5458803718194</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.8024880457284</v>
+        <v>14.99159621889893</v>
       </c>
       <c r="N18">
-        <v>24.195705039064</v>
+        <v>16.7495809843031</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.42971442352396</v>
+        <v>18.00105306454882</v>
       </c>
       <c r="C19">
-        <v>8.382393573368278</v>
+        <v>10.01091614995085</v>
       </c>
       <c r="D19">
-        <v>6.298689281307493</v>
+        <v>4.022764279609489</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.27817395364877</v>
+        <v>41.98746287125208</v>
       </c>
       <c r="G19">
-        <v>3.737187691846358</v>
+        <v>2.11284386321534</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.96207424604163</v>
+        <v>6.904455448812685</v>
       </c>
       <c r="K19">
-        <v>15.79029391109555</v>
+        <v>15.47512950020721</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.79780184270582</v>
+        <v>14.94659599789816</v>
       </c>
       <c r="N19">
-        <v>24.19796174936142</v>
+        <v>16.75604922373804</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.50580718563777</v>
+        <v>18.3305804503325</v>
       </c>
       <c r="C20">
-        <v>8.430376300462617</v>
+        <v>10.22259042924881</v>
       </c>
       <c r="D20">
-        <v>6.300495375048139</v>
+        <v>4.081277564211923</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.33844147010628</v>
+        <v>42.41809232804032</v>
       </c>
       <c r="G20">
-        <v>3.736098171555065</v>
+        <v>2.109449770924702</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.95857405327209</v>
+        <v>6.932187611497397</v>
       </c>
       <c r="K20">
-        <v>15.83966651926897</v>
+        <v>15.79799156662268</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.81914474179077</v>
+        <v>15.14892240058667</v>
       </c>
       <c r="N20">
-        <v>24.18793109134337</v>
+        <v>16.72739060057139</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.76395007725973</v>
+        <v>19.52584775264436</v>
       </c>
       <c r="C21">
-        <v>8.59241410958438</v>
+        <v>10.91494969259896</v>
       </c>
       <c r="D21">
-        <v>6.308002552778909</v>
+        <v>4.274867958787961</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.55132660262442</v>
+        <v>43.88251733304529</v>
       </c>
       <c r="G21">
-        <v>3.732551605059285</v>
+        <v>2.098133785188618</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.9485197263847</v>
+        <v>7.029956891798101</v>
       </c>
       <c r="K21">
-        <v>16.00898990673926</v>
+        <v>16.85802519684165</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.89526873603093</v>
+        <v>15.8253269782069</v>
       </c>
       <c r="N21">
-        <v>24.15641430570588</v>
+        <v>16.63928286430841</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.93423309833355</v>
+        <v>20.29504553218802</v>
       </c>
       <c r="C22">
-        <v>8.698739736960595</v>
+        <v>11.35387602302568</v>
       </c>
       <c r="D22">
-        <v>6.313973186922057</v>
+        <v>4.399040881212305</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.69809775016184</v>
+        <v>44.85278819312194</v>
       </c>
       <c r="G22">
-        <v>3.730318309479981</v>
+        <v>2.09078943728662</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.94321894746354</v>
+        <v>7.097396932042342</v>
       </c>
       <c r="K22">
-        <v>16.12206030098387</v>
+        <v>17.5285797832807</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.94826186346203</v>
+        <v>16.26465353310884</v>
       </c>
       <c r="N22">
-        <v>24.13744591062249</v>
+        <v>16.58821206736464</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.84322382087973</v>
+        <v>19.88670819517995</v>
       </c>
       <c r="C23">
-        <v>8.641964864430165</v>
+        <v>11.12082249345331</v>
       </c>
       <c r="D23">
-        <v>6.310689716821102</v>
+        <v>4.332988392212222</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.61907158804766</v>
+        <v>44.33371710780685</v>
       </c>
       <c r="G23">
-        <v>3.731502548795066</v>
+        <v>2.094705510604946</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.94593191679182</v>
+        <v>7.061070824498168</v>
       </c>
       <c r="K23">
-        <v>16.06150223938993</v>
+        <v>17.17268115779969</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.91968506476254</v>
+        <v>16.03043781803435</v>
       </c>
       <c r="N23">
-        <v>24.14742050722314</v>
+        <v>16.61484540106927</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50161848934037</v>
+        <v>18.31256557840541</v>
       </c>
       <c r="C24">
-        <v>8.427737739375926</v>
+        <v>10.21103827807059</v>
       </c>
       <c r="D24">
-        <v>6.300390759648167</v>
+        <v>4.078075282335089</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.33509249627326</v>
+        <v>42.39437807689129</v>
       </c>
       <c r="G24">
-        <v>3.736157572561923</v>
+        <v>2.109635794358787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.95875984724096</v>
+        <v>6.930647704999922</v>
       </c>
       <c r="K24">
-        <v>15.83694188761484</v>
+        <v>15.78028059616345</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.8179559640924</v>
+        <v>15.13782361023313</v>
       </c>
       <c r="N24">
-        <v>24.18847371075571</v>
+        <v>16.72893461428119</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.14169025981191</v>
+        <v>16.70297854843558</v>
       </c>
       <c r="C25">
-        <v>8.199710456815344</v>
+        <v>9.168514596607103</v>
       </c>
       <c r="D25">
-        <v>6.293902260774038</v>
+        <v>3.793813062580948</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.06224952657075</v>
+        <v>40.35898058393798</v>
       </c>
       <c r="G25">
-        <v>3.741544749344564</v>
+        <v>2.126048705435322</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.97805714725441</v>
+        <v>6.804422140881942</v>
       </c>
       <c r="K25">
-        <v>15.60604625192526</v>
+        <v>14.43806221251165</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.72244784055253</v>
+        <v>14.16494694196687</v>
       </c>
       <c r="N25">
-        <v>24.23974490200825</v>
+        <v>16.87737656777534</v>
       </c>
       <c r="O25">
         <v>0</v>
